--- a/RONDA_ALTA.xlsx
+++ b/RONDA_ALTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B863B9-0A59-49D6-932F-FB686AC37DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9B11E9-499B-4232-92D8-20CF1133F681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{10188DF3-D3DB-4616-8A4A-9CEDCE620EFC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2479716D-7DB3-46DD-A271-50A95F0A9CC0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F05C75F-3A6A-466A-B14F-6A2A9687D43A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE89982-6CA1-42CD-B78C-D695A3332E79}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2298E9C6-E2DB-47C9-BD2D-BB7BFC729379}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAF7D31-21F0-41E1-8BDA-0C8E0AF5ACCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14D8382-4568-48DC-A7A9-5F04A71181B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FEFD68-C1EB-4FFB-8C1F-797883244C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFC3F6A-205D-008B-35DF-7270B3DC99C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A1495E-03D7-9CA4-F878-7EC4AEF0D3B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D155F81-831E-BF8F-D592-24605BCB22D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7687903-F307-8E4A-3B72-2D873A90A3AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2778C77-DCCD-0DD2-13C7-4FE309F1D858}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE5A3E-2287-6C38-16BB-17F460520680}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B6D003-6F54-C298-44BD-DA8D304F13D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF1D54C-9FF0-8886-3B99-DA9F05F21A15}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C5074-CC4B-C974-2193-44606CAA5AE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5B96C5-555B-6165-E2AB-73B58AEB3006}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080D1914-B2F9-4843-87CF-2C2BF082F407}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBDF991-7533-42A8-A03E-ECF77BAD7921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E522D95-D092-46EA-8C84-54C9BE948C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB108D6F-89B0-46D8-A9ED-C20994068EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4AA0223-DC97-477F-9217-77592C5BF0CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D7A011-D3A9-496D-9A1D-B5A55DED75C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B92660-8B16-473E-9456-FD1200F28B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60132793-5BFF-44AF-A823-D59A7E3F628E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RONDA_ALTA.xlsx
+++ b/RONDA_ALTA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9B11E9-499B-4232-92D8-20CF1133F681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5FF14E-A20D-4968-9E44-092C5847567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="298">
   <si>
     <t>COMARCA</t>
   </si>
@@ -920,15 +919,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>RONDA ALTA</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,27 +1177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2479716D-7DB3-46DD-A271-50A95F0A9CC0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{494894B4-B43F-42CB-8EA1-8F936AA9F8F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE89982-6CA1-42CD-B78C-D695A3332E79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCD206E-71AF-498E-B082-D1BC5EDE8940}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAF7D31-21F0-41E1-8BDA-0C8E0AF5ACCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265FD8DF-F8FA-4207-9EDC-408207035308}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FEFD68-C1EB-4FFB-8C1F-797883244C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E80401-A979-4E7E-81FC-A80B95BE8763}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A1495E-03D7-9CA4-F878-7EC4AEF0D3B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FC82D9-6AD8-9FE3-10E6-881466D8D30B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7687903-F307-8E4A-3B72-2D873A90A3AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B49022-198A-1FB3-97FE-CEB6AC108048}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE5A3E-2287-6C38-16BB-17F460520680}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6A8B2D-A078-1FED-A613-62BA100E06A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF1D54C-9FF0-8886-3B99-DA9F05F21A15}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC83EDE8-1FBA-E94A-5C05-A5B46BF06833}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5B96C5-555B-6165-E2AB-73B58AEB3006}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC5ACAF-489B-D8F6-D005-4AA12E57CE05}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBDF991-7533-42A8-A03E-ECF77BAD7921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14940EE-AF80-4965-9B1A-DB2EF1409A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB108D6F-89B0-46D8-A9ED-C20994068EC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB55EDA3-BB09-4A53-BF20-14184C462474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D7A011-D3A9-496D-9A1D-B5A55DED75C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96878EB-5364-4DBE-BF52-D8A81C35D2BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60132793-5BFF-44AF-A823-D59A7E3F628E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D04DE7-E3D7-4640-954F-0AB7D19910F7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1939,98 +1914,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5463,52 +5438,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="32">
-        <v>5</v>
-      </c>
-      <c r="C2" s="30">
-        <v>3.3064409469646871E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/RONDA_ALTA.xlsx
+++ b/RONDA_ALTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5FF14E-A20D-4968-9E44-092C5847567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2FF3B1-8B75-4291-8F1C-C8A0B423BE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{494894B4-B43F-42CB-8EA1-8F936AA9F8F3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{08739CFD-0869-44F8-8E5D-1EA24270B1C4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCD206E-71AF-498E-B082-D1BC5EDE8940}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F8A9F1-422E-4DE6-A778-990F8F1CD1EF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265FD8DF-F8FA-4207-9EDC-408207035308}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B83560-9172-4C1A-A048-D7D030F29FA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E80401-A979-4E7E-81FC-A80B95BE8763}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBD0F8E-A601-43FC-BDE3-42A58F8E5CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FC82D9-6AD8-9FE3-10E6-881466D8D30B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245C619-011D-B2A3-0E9C-8B3BB819C423}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B49022-198A-1FB3-97FE-CEB6AC108048}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8280CF4-4EDE-5B8E-CB83-0CABC3EAB72C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6A8B2D-A078-1FED-A613-62BA100E06A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCD4A4C-8D19-B83A-0764-5D2029936C95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC83EDE8-1FBA-E94A-5C05-A5B46BF06833}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5657E8C-D6A3-B018-A8A8-24EEA34A94D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC5ACAF-489B-D8F6-D005-4AA12E57CE05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C47B89-B6BD-55B3-0D0B-AA929FF69176}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14940EE-AF80-4965-9B1A-DB2EF1409A16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB58EDF9-E179-4CEA-B444-E3074E40CACC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB55EDA3-BB09-4A53-BF20-14184C462474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442F5AE3-C879-4017-91C5-3ACCFF43D31C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96878EB-5364-4DBE-BF52-D8A81C35D2BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D04DE7-E3D7-4640-954F-0AB7D19910F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C793EE9-E882-477C-8475-BCBEE0838457}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
